--- a/config_1.5/act_ty_zp1_config.xlsx
+++ b/config_1.5/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="11790" tabRatio="779"/>
+    <workbookView windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -400,7 +400,7 @@
     <t>"5180万","抽奖券*50","双倍奖励*15",</t>
   </si>
   <si>
-    <t>"nil","nil","双倍奖励卡，请在3D捕鱼中使用"</t>
+    <t>"","","双倍奖励卡，请在3D捕鱼中使用"</t>
   </si>
   <si>
     <t>198元礼包</t>
@@ -439,7 +439,7 @@
     <t>"5180万","抽奖券*50","太阳*20",</t>
   </si>
   <si>
-    <t>"nil","nil","请在苹果大战中使用"</t>
+    <t>"","","请在苹果大战中使用"</t>
   </si>
   <si>
     <t>"2020万","抽奖券*30","太阳*10",</t>
@@ -466,18 +466,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,16 +491,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,62 +535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,7 +551,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,20 +588,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -628,8 +601,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,9 +624,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -653,7 +646,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,187 +673,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,27 +870,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -930,29 +903,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,17 +933,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,10 +973,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,138 +985,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1144,40 +1125,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,7 +1476,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1510,68 +1484,68 @@
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="10" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>69</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>69</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1598,7 +1572,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1607,12 +1581,12 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -1621,12 +1595,12 @@
       <c r="C2" s="5">
         <v>1610380799</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1669,80 +1643,80 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E2">
         <v>12000</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>11895</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>11896</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4">
         <v>20000</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>11897</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
@@ -1751,42 +1725,42 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>11898</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E6">
         <v>50000</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>11899</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="F7" s="9">
+      <c r="D7" s="6"/>
+      <c r="F7" s="7">
         <v>11900</v>
       </c>
     </row>
@@ -1805,8 +1779,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1855,7 +1829,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>10413</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1867,7 +1841,7 @@
       <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="2">
@@ -1884,7 +1858,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>10414</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1896,7 +1870,7 @@
       <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="2">
@@ -1913,7 +1887,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>10415</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1925,7 +1899,7 @@
       <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="2">
@@ -1942,7 +1916,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>10416</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1954,7 +1928,7 @@
       <c r="E5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="2">
@@ -1971,7 +1945,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>10417</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1983,7 +1957,7 @@
       <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="G6" s="2">
@@ -2000,7 +1974,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>10418</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2012,7 +1986,7 @@
       <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="2">
@@ -2076,80 +2050,80 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E2">
         <v>12000</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>11895</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>11896</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E4">
         <v>20000</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>11897</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
@@ -2158,42 +2132,42 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>11898</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E6">
         <v>50000</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>11899</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="F7" s="9">
+      <c r="D7" s="6"/>
+      <c r="F7" s="7">
         <v>11900</v>
       </c>
     </row>
@@ -2208,8 +2182,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_1.5/act_ty_zp1_config.xlsx
+++ b/config_1.5/act_ty_zp1_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -71,7 +76,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>help_info|</t>
     </r>
@@ -89,7 +94,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -107,7 +112,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -125,7 +130,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -136,7 +141,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>"1.</t>
     </r>
@@ -154,7 +159,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -172,7 +177,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -190,7 +195,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>8:00-1</t>
     </r>
@@ -208,7 +213,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -226,7 +231,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>23:59:59</t>
     </r>
@@ -244,7 +249,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>",
 "2.</t>
@@ -263,7 +268,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>",
 "3.</t>
@@ -282,7 +287,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>",</t>
     </r>
@@ -418,9 +423,6 @@
     <t>48元礼包</t>
   </si>
   <si>
-    <t>"483万","抽奖券*3","双倍奖励*3",</t>
-  </si>
-  <si>
     <t>20元礼包</t>
   </si>
   <si>
@@ -451,26 +453,25 @@
     <t>"ty_icon_jb_50y","act_ty_zp1_cjq","zpg_icon_shui",</t>
   </si>
   <si>
-    <t>"483万","抽奖券*3","水滴*6",</t>
-  </si>
-  <si>
     <t>"200万","抽奖券*4","水滴*2",</t>
   </si>
   <si>
     <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>"483万","抽奖券*10","水滴*6",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*10","双倍奖励*3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,104 +489,7 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -593,60 +497,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,198 +518,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -869,252 +558,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1155,62 +602,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1468,19 +871,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1489,7 +892,7 @@
     <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1529,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1550,28 +953,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:4">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="58.5" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1599,25 +1001,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
@@ -1627,7 +1028,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1648,7 +1049,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1669,7 +1070,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1689,7 +1090,7 @@
         <v>11896</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1709,7 +1110,7 @@
         <v>11897</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1729,7 +1130,7 @@
         <v>11898</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1749,7 +1150,7 @@
         <v>11899</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1766,24 +1167,23 @@
     </row>
   </sheetData>
   <sortState ref="F2:F7">
-    <sortCondition ref="F7" descending="1"/>
+    <sortCondition descending="1" ref="F7"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
@@ -1796,7 +1196,7 @@
     <col min="9" max="9" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1825,7 +1225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1854,7 +1254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1883,7 +1283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1912,7 +1312,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1929,7 +1329,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1941,7 +1341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1949,7 +1349,7 @@
         <v>10417</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -1958,7 +1358,7 @@
         <v>46</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1970,7 +1370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1978,7 +1378,7 @@
         <v>10418</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1987,7 +1387,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1999,32 +1399,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1"/>
-    <row r="11" s="2" customFormat="1"/>
-    <row r="12" s="2" customFormat="1"/>
-    <row r="13" s="2" customFormat="1"/>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
@@ -2034,7 +1433,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2055,7 +1454,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2076,7 +1475,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2096,7 +1495,7 @@
         <v>11896</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2116,7 +1515,7 @@
         <v>11897</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2136,7 +1535,7 @@
         <v>11898</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2156,7 +1555,7 @@
         <v>11899</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2172,21 +1571,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
@@ -2199,7 +1597,7 @@
     <col min="9" max="9" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +1626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2242,10 +1640,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2254,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2271,10 +1669,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2283,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2300,10 +1698,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -2312,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2329,10 +1727,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2341,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2352,17 +1750,17 @@
         <v>10423</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
@@ -2370,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2381,16 +1779,16 @@
         <v>10424</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -2399,20 +1797,20 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1"/>
-    <row r="11" s="2" customFormat="1"/>
-    <row r="12" s="2" customFormat="1"/>
-    <row r="13" s="2" customFormat="1"/>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="2" customFormat="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>